--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T20:02:07+00:00</t>
+    <t>2021-12-10T20:11:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T20:11:58+00:00</t>
+    <t>2021-12-10T22:42:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-10T22:42:34+00:00</t>
+    <t>2021-12-15T00:34:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-15T00:34:29+00:00</t>
+    <t>2021-12-21T21:05:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-21T21:05:49+00:00</t>
+    <t>2022-01-10T18:47:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T18:47:14+00:00</t>
+    <t>2022-01-10T20:19:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T20:19:56+00:00</t>
+    <t>2022-01-10T22:39:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T22:39:32+00:00</t>
+    <t>2022-01-10T23:17:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-10T23:17:23+00:00</t>
+    <t>2022-01-14T00:18:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1054" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="157">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-14T00:18:13+00:00</t>
+    <t>2022-01-16T20:26:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -496,45 +496,11 @@
     <t>response</t>
   </si>
   <si>
-    <t>Form
-QuestionnaireAnswersForm Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QuestionnaireResponse {http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCQuestionnaireResponse}
-</t>
-  </si>
-  <si>
-    <t>SDC Questionnaire Response</t>
-  </si>
-  <si>
-    <t>Sets expectations for supported capabilities for questionnaire responses for SDC-conformant systems.</t>
-  </si>
-  <si>
-    <t>The QuestionnaireResponse contains enough information about the questions asked and their organization that it can be interpreted somewhat independently from the Questionnaire it is based on.  I.e. You don't need access to the Questionnaire in order to extract basic information from a QuestionnaireResponse.</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}sdcqr-1:Subject SHOULD be present (searching is difficult without subject).  Almost all QuestionnaireResponses should be with respect to some sort of subject. {subject.exists()}sdcqr-2:When repeats=true for a group, it'll be represented with multiple items with the same linkId in the QuestionnaireResponse.  For a question, it'll be represented by a single item with that linkId with multiple answers. {(QuestionnaireResponse|repeat(answer|item)).select(item.where(answer.value.exists()).linkId.isDistinct()).allTrue()}</t>
-  </si>
-  <si>
-    <t>Observation[moodCode=EVN]</t>
-  </si>
-  <si>
-    <t>ddccId</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">id
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>valueId</t>
+    <t>QuestionnaireResponse {http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCQuestionnaireResponse}
+Bundle</t>
+  </si>
+  <si>
+    <t>ddccBundle</t>
   </si>
 </sst>
 </file>
@@ -839,7 +805,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK31"/>
+  <dimension ref="A1:AK30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -850,7 +816,7 @@
   <cols>
     <col min="1" max="1" width="39.078125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="14.2734375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="31.30078125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="21.21484375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
@@ -884,7 +850,7 @@
     <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="28.1484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="28.84375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.9765625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2987,7 +2953,7 @@
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
@@ -3003,19 +2969,19 @@
         <v>74</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -3074,16 +3040,16 @@
         <v>82</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="AJ21" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>161</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22">
@@ -3196,7 +3162,7 @@
         <v>110</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="C23" t="s" s="2">
         <v>74</v>
@@ -3654,7 +3620,7 @@
         <v>74</v>
       </c>
       <c r="R27" t="s" s="2">
-        <v>163</v>
+        <v>74</v>
       </c>
       <c r="S27" t="s" s="2">
         <v>74</v>
@@ -3724,7 +3690,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>82</v>
@@ -3739,7 +3705,7 @@
         <v>83</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="K28" t="s" s="2">
         <v>141</v>
@@ -3784,14 +3750,16 @@
         <v>74</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AB28" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AC28" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>115</v>
+        <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
         <v>139</v>
@@ -3817,17 +3785,15 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>166</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="F29" t="s" s="2">
         <v>82</v>
@@ -3842,15 +3808,17 @@
         <v>83</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>148</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>74</v>
@@ -3899,7 +3867,7 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>75</v>
@@ -3911,7 +3879,7 @@
         <v>143</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>74</v>
@@ -3922,7 +3890,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -3933,7 +3901,7 @@
         <v>75</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>74</v>
@@ -3945,16 +3913,16 @@
         <v>83</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4004,129 +3972,24 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>143</v>
+        <v>74</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="B31" s="2"/>
-      <c r="C31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I31" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K31" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P31" s="2"/>
-      <c r="Q31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK31" t="s" s="2">
         <v>74</v>
       </c>
     </row>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-16T20:26:17+00:00</t>
+    <t>2022-01-18T14:34:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-18T14:34:22+00:00</t>
+    <t>2022-01-19T20:52:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-19T20:52:52+00:00</t>
+    <t>2022-01-24T12:54:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-24T12:54:27+00:00</t>
+    <t>2022-01-24T13:03:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-24T13:03:50+00:00</t>
+    <t>2022-01-24T15:52:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-24T15:52:44+00:00</t>
+    <t>2022-01-24T18:58:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="156">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-24T18:58:51+00:00</t>
+    <t>2022-01-24T20:22:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -498,9 +498,6 @@
   <si>
     <t>QuestionnaireResponse {http://worldhealthorganization.github.io/ddcc/StructureDefinition/DDCCQuestionnaireResponse}
 Bundle</t>
-  </si>
-  <si>
-    <t>ddccBundle</t>
   </si>
 </sst>
 </file>
@@ -805,7 +802,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK30"/>
+  <dimension ref="A1:AK22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2333,7 +2330,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>82</v>
@@ -3154,842 +3151,6 @@
         <v>74</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="B23" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="C23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F23" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I23" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J23" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="K23" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P23" s="2"/>
-      <c r="Q23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE23" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="B24" s="2"/>
-      <c r="C24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J24" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K24" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="L24" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P24" s="2"/>
-      <c r="Q24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE24" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="AF24" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG24" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK24" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="B25" s="2"/>
-      <c r="C25" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="D25" s="2"/>
-      <c r="E25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J25" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="K25" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>125</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N25" s="2"/>
-      <c r="O25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P25" s="2"/>
-      <c r="Q25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="AF25" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="2">
-        <v>129</v>
-      </c>
-      <c r="B26" s="2"/>
-      <c r="C26" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="D26" s="2"/>
-      <c r="E26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H26" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I26" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J26" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="K26" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P26" s="2"/>
-      <c r="Q26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="F27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I27" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J27" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="K27" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="L27" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P27" s="2"/>
-      <c r="Q27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D28" s="2"/>
-      <c r="E28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I28" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J28" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="K28" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-      <c r="O28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P28" s="2"/>
-      <c r="Q28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I29" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J29" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="K29" t="s" s="2">
-        <v>146</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="N29" s="2"/>
-      <c r="O29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P29" s="2"/>
-      <c r="Q29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="B30" s="2"/>
-      <c r="C30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I30" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="K30" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P30" s="2"/>
-      <c r="Q30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI30" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ30" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK30" t="s" s="2">
         <v>74</v>
       </c>
     </row>

--- a/refs/heads/ddcc-tr/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
+++ b/refs/heads/ddcc-tr/StructureDefinition-DDCCGenerateHealthCertificateParameters.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-24T20:22:18+00:00</t>
+    <t>2022-01-25T14:32:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
